--- a/faq_qs_ans.xlsx
+++ b/faq_qs_ans.xlsx
@@ -387,7 +387,7 @@
     <t xml:space="preserve">What time should I arrive for my appointment?</t>
   </si>
   <si>
-    <t xml:space="preserve">You should aim to arrive at leat 10 minutes before your appointment.</t>
+    <t xml:space="preserve">You should aim to arrive at least 10 minutes before your appointment.</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -419,12 +419,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -469,7 +463,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -498,10 +492,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,11 +511,11 @@
   </sheetPr>
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="94.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="255.78"/>
@@ -983,7 +973,7 @@
       <c r="A57" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>109</v>
       </c>
     </row>
